--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45630.85815972222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45839.68944444445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44621.49918981481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45817.48946759259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>46042.60815972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>44868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45274</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45630.84596064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>45240</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>44803</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45483.40099537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>45366.55957175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45770.62328703704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45889.33890046296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45274</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45279.65201388889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>45630.84898148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45279</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>45330</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>46044.71936342592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44244</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>45442.38009259259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44266</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44530.45506944445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44628</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>44614</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44831</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44754.35361111111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>44427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>44637.59607638889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44708.34130787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44362.621875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44348.69945601852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44809</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44572.31209490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44652.45527777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>44510</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>44515</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>44496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>44536.6102662037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>44439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44550</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44461</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44568</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44809</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44582</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44719.59027777778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44252</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>44795.51157407407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>44642.57876157408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>44243</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>44378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>44263</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45748.65071759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>45634.74640046297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45456.38</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44979.53782407408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44243</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44903</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>45316.46585648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44991.85997685185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44582.60462962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45660.4503587963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45465.44537037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45210</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45177</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>45637.66935185185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45671.91678240741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45617.72695601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45576.44700231482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45015</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45329.75289351852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45355</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45608.73481481482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45608.74045138889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45097.38552083333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45568.64648148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45465.44144675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45254</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45534.59996527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45510.65791666666</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45607.5986574074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>45782.35883101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>45258.31431712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44260.52003472222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>45803.45508101852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45335.50540509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>45679.87385416667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44298</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45805.35203703704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45111.600625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45804.53835648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45804.5450462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45804.54657407408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45804.5475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44631.40365740741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45196.74399305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44991.86207175926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44977</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45617</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>45810.43835648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45734.43648148148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45378.50021990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45406.4834837963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>45812.68253472223</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>45812.39840277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>45770.62131944444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>45894.87516203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>44488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45576.45584490741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45817.57240740741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45640.78921296296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45818.37311342593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45355.58215277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45894</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45901.43854166667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45901.43251157407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45901.43643518518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45687.71972222222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45902.67804398148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45905.49694444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>45261</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44949.47299768519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>45356.67628472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45908.30107638889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45908.37523148148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45908.37621527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>45910.56927083333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>45721.48103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>45723.64304398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>45826.27395833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>45726.56748842593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>45726.65605324074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>45726</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>45915.56835648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44505.79517361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>45716</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45916.75508101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45230.58957175926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>45922.7158449074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>45512.4183449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45218.63770833334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45520.5412037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>45924.48055555556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>45835.44943287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>45929.7067824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>45928.68194444444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>45930.73918981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45681.60335648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45931.38734953704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>45330</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45329.36071759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45279.68320601852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>45838.41680555556</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>45468.55118055556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44672</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44672</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>45279</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44979</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45279.35271990741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44896</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45841.50623842593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>45938.69974537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45937</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45937</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45938.69787037037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45938.70332175926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45938.70142361111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45211</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45722</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45097</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45940.47415509259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45219.39265046296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45465.43989583333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45465.44412037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45922.7187037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45429</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44896</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45850.66096064815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45253</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45850.66271990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45772.49256944445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45757.61144675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45952.57729166667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45133.58770833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45952.57494212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44984</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>44974</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45958.6034375</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45958.60418981482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44596.48284722222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45244.36944444444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45960.54053240741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45961.60966435185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44315</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45600.65659722222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45964.38070601852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>45964.4522337963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45964.3555324074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45964.35775462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44831.86186342593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45966.47996527778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45966.37148148148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45966.36814814815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45966.47914351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45971.48229166667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45257.65560185185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45673.36258101852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45969.41967592593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45271</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45972</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>44615.82409722222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>45972</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>44832.74553240741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44729.53085648148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45974.6280787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45973.81604166667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>45973.81059027778</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45371.38420138889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>45887.71134259259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45427.46807870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>45412.43246527778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>45310</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>45673.25934027778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45673.27136574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45986.4834837963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45986.48988425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44821</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45785</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>44469.68799768519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45989.47740740741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45989.4797800926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45812.54665509259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45420.61472222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>45380.80784722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>45749.82921296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>46035.39015046296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>46036.36211805556</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>45994</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>45211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>46031</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44727</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>46038.70267361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>45257.71068287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>46038.78969907408</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>46038.79092592592</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45999.4471875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44721.47039351852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>46038.6604050926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45996</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44418.31126157408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>45265</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>46000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>46000.4978587963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45399.42413194444</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>46044.7133912037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>46044.69255787037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45589.58722222222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44831.61996527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45681.36631944445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44708.3287037037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45628.64818287037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45771.36829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44957.62646990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45608.7362037037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>46008.65475694444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>46010</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45021.84559027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45271.47798611111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45700.84613425926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45166.87391203704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45705.75006944445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>46014.65982638889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>46014.66287037037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45708.44409722222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45708.47453703704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45699.31804398148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>44964.28975694445</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45391.5203587963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>45152</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>45737.32966435186</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44953</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45757.61700231482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44446</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>45569.65767361111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>45378.65465277778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44855</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45700.84496527778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45349.37376157408</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>45091</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>45546.54806712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>45576.44601851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45011</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44907.57800925926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44378</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44637</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>45608.73741898148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>45156.63964120371</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45465.44271990741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45630.27112268518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44949</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>45440.3950462963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45271.4643287037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44977.82046296296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>45258.31546296296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>45166.87197916667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44816.71021990741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>45596.39893518519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45173.36982638889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44358</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45607.62167824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>45706.60927083333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>45749.82695601852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45465.42688657407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45541.41628472223</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45618.45256944445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45429.89168981482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44456</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45177.37849537037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45754.64701388889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>45594.92625</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45721.55325231481</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>45519.61547453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45792.53560185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>45792.53724537037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45681</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45630.85815972222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45839.68944444445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44621.49918981481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45817.48946759259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>46042.60815972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>44868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>44242</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>45274</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>45630.84596064815</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>45240</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1679,7 +1679,7 @@
         <v>44803</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1765,7 +1765,7 @@
         <v>45483.40099537037</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1850,7 +1850,7 @@
         <v>45366.55957175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1935,7 +1935,7 @@
         <v>45770.62328703704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45889.33890046296</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>45274</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
         <v>45279.65201388889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>45630.84898148148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45279</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>45330</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
         <v>46044.71936342592</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>44244</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>45442.38009259259</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>44266</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2895,7 +2895,7 @@
         <v>44530.45506944445</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
         <v>44628</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3009,7 +3009,7 @@
         <v>44614</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>44831</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>44754.35361111111</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         <v>44355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
         <v>44427</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         <v>44637.59607638889</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>44335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>44708.34130787037</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
         <v>44817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         <v>44516</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44773</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         <v>44852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>44362.621875</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         <v>44348.69945601852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         <v>44809</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3864,7 +3864,7 @@
         <v>44389</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3926,7 +3926,7 @@
         <v>44572.31209490741</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44447</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44652.45527777778</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>44510</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
         <v>44515</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4211,7 +4211,7 @@
         <v>44496</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4268,7 +4268,7 @@
         <v>44536.6102662037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
         <v>44439</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4382,7 +4382,7 @@
         <v>44550</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4439,7 +4439,7 @@
         <v>44461</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>44568</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>44809</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4610,7 +4610,7 @@
         <v>44582</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
         <v>44332</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         <v>44719.59027777778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4781,7 +4781,7 @@
         <v>44252</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         <v>44795.51157407407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         <v>44642.57876157408</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>44243</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         <v>44726</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         <v>44378</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         <v>44263</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         <v>45748.65071759259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
         <v>45634.74640046297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5294,7 +5294,7 @@
         <v>45456.38</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5351,7 +5351,7 @@
         <v>44979.53782407408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5408,7 +5408,7 @@
         <v>44243</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5470,7 +5470,7 @@
         <v>45118</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
         <v>44903</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>45316.46585648148</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>44991.85997685185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>44582.60462962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>45660.4503587963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
         <v>45465.44537037037</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5874,7 +5874,7 @@
         <v>45210</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         <v>45177</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>45637.66935185185</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6045,7 +6045,7 @@
         <v>44389</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
         <v>45671.91678240741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>45617.72695601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45576.44700231482</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45015</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45329.75289351852</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45355</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45608.73481481482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45608.74045138889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>44258</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45097.38552083333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45568.64648148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45465.44144675926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>45254</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45534.59996527778</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45510.65791666666</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45607.5986574074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>45782.35883101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>45258.31431712963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>44461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>44260.52003472222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>45803.45508101852</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45335.50540509259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45335</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>45679.87385416667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>44298</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45805.35203703704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45111.600625</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>45804.53835648148</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45804.5450462963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45804.54657407408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45804.5475</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44631.40365740741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45196.74399305556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44991.86207175926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44977</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45617</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>45810.43835648148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45734.43648148148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45378.50021990741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>45406.4834837963</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>45812.68253472223</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8449,7 +8449,7 @@
         <v>45812.39840277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8506,7 +8506,7 @@
         <v>45770.62131944444</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8563,7 +8563,7 @@
         <v>45894.87516203704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8620,7 +8620,7 @@
         <v>44488</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8677,7 +8677,7 @@
         <v>45576.45584490741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8734,7 +8734,7 @@
         <v>45817.57240740741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>45640.78921296296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>45818.37311342593</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>45894</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>45355.58215277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>45894</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>45901.43854166667</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>45901.43251157407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>45901.43643518518</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9247,7 +9247,7 @@
         <v>45687.71972222222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45902.67804398148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45905.49694444444</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9418,7 +9418,7 @@
         <v>45261</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9475,7 +9475,7 @@
         <v>44949.47299768519</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9532,7 +9532,7 @@
         <v>45356.67628472222</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9589,7 +9589,7 @@
         <v>45908.30107638889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>45908.37523148148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9703,7 +9703,7 @@
         <v>45908.37621527778</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9760,7 +9760,7 @@
         <v>45910.56927083333</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9817,7 +9817,7 @@
         <v>45721.48103009259</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>45723.64304398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>45826.27395833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>45726.56748842593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10050,7 +10050,7 @@
         <v>45726.65605324074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10107,7 +10107,7 @@
         <v>45726</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>45915.56835648148</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>45726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10278,7 +10278,7 @@
         <v>44505.79517361111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10335,7 +10335,7 @@
         <v>45716</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>45916.75508101852</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>45230.58957175926</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44727</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>45922.7158449074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>45512.4183449074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45218.63770833334</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45520.5412037037</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>45924.48055555556</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>45835.44943287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>45929.7067824074</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11019,7 +11019,7 @@
         <v>45928.68194444444</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11076,7 +11076,7 @@
         <v>45930.73918981481</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11133,7 +11133,7 @@
         <v>45681.60335648148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11190,7 +11190,7 @@
         <v>45931.38734953704</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11247,7 +11247,7 @@
         <v>45330</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45329.36071759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45279.68320601852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11428,7 +11428,7 @@
         <v>45838.41680555556</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11485,7 +11485,7 @@
         <v>45468.55118055556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11542,7 +11542,7 @@
         <v>44672</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11599,7 +11599,7 @@
         <v>44672</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11656,7 +11656,7 @@
         <v>45279</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>44979</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45279.35271990741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>44896</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>45841.50623842593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>45938.69974537037</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>45937</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>45937</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>45938.69787037037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45938.70332175926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45938.70142361111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45211</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45722</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45097</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45940.47415509259</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45219.39265046296</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45465.43989583333</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45465.44412037037</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45922.7187037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45429</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>44896</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>45850.66096064815</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>45253</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12977,7 +12977,7 @@
         <v>45850.66271990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>45772.49256944445</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13091,7 +13091,7 @@
         <v>45757.61144675926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13148,7 +13148,7 @@
         <v>45952.57729166667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
         <v>45133.58770833333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13262,7 +13262,7 @@
         <v>45952.57494212963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13319,7 +13319,7 @@
         <v>44984</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13376,7 +13376,7 @@
         <v>44974</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13433,7 +13433,7 @@
         <v>45958.6034375</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13490,7 +13490,7 @@
         <v>45958.60418981482</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13547,7 +13547,7 @@
         <v>44596.48284722222</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>45244.36944444444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13661,7 +13661,7 @@
         <v>45960.54053240741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13718,7 +13718,7 @@
         <v>45961.60966435185</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13775,7 +13775,7 @@
         <v>44315</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>45600.65659722222</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45964.38070601852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>45964.4522337963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14003,7 +14003,7 @@
         <v>45964.3555324074</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         <v>45964.35775462963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14117,7 +14117,7 @@
         <v>44831.86186342593</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14174,7 +14174,7 @@
         <v>45966.47996527778</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14231,7 +14231,7 @@
         <v>45966.37148148148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>45966.36814814815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14345,7 +14345,7 @@
         <v>45966.47914351852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14402,7 +14402,7 @@
         <v>45971.48229166667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14459,7 +14459,7 @@
         <v>45257.65560185185</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14516,7 +14516,7 @@
         <v>45673.36258101852</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>45969.41967592593</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14630,7 +14630,7 @@
         <v>45271</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14692,7 +14692,7 @@
         <v>45972</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14749,7 +14749,7 @@
         <v>44615.82409722222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14806,7 +14806,7 @@
         <v>45972</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14863,7 +14863,7 @@
         <v>44832.74553240741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
         <v>44729.53085648148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14977,7 +14977,7 @@
         <v>45974.6280787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>45973.81604166667</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15091,7 +15091,7 @@
         <v>45973.81059027778</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15148,7 +15148,7 @@
         <v>44964</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45371.38420138889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>45887.71134259259</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15381,7 +15381,7 @@
         <v>45427.46807870371</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>45412.43246527778</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>45310</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>45673.25934027778</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>45673.27136574074</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15676,7 +15676,7 @@
         <v>45986.4834837963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15733,7 +15733,7 @@
         <v>45986.48988425926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44821</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>45785</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15904,7 +15904,7 @@
         <v>44469.68799768519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15961,7 +15961,7 @@
         <v>45989.47740740741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16023,7 +16023,7 @@
         <v>45989.4797800926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16085,7 +16085,7 @@
         <v>45812.54665509259</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16142,7 +16142,7 @@
         <v>45420.61472222222</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16199,7 +16199,7 @@
         <v>45380.80784722222</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16256,7 +16256,7 @@
         <v>45749.82921296296</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>46035.39015046296</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>46036.36211805556</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>45994</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>45211</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>46031</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16598,7 +16598,7 @@
         <v>44727</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16655,7 +16655,7 @@
         <v>46038.70267361111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16712,7 +16712,7 @@
         <v>45257.71068287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16769,7 +16769,7 @@
         <v>46038.78969907408</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16826,7 +16826,7 @@
         <v>46038.79092592592</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16883,7 +16883,7 @@
         <v>45999.4471875</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16940,7 +16940,7 @@
         <v>44721.47039351852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16997,7 +16997,7 @@
         <v>46038.6604050926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45996</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44418.31126157408</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>45265</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17225,7 +17225,7 @@
         <v>46000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17282,7 +17282,7 @@
         <v>46000.4978587963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17339,7 +17339,7 @@
         <v>45399.42413194444</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17396,7 +17396,7 @@
         <v>46044.7133912037</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>46044.69255787037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17510,7 +17510,7 @@
         <v>45589.58722222222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17567,7 +17567,7 @@
         <v>44831.61996527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17624,7 +17624,7 @@
         <v>45681.36631944445</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17681,7 +17681,7 @@
         <v>44708.3287037037</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17738,7 +17738,7 @@
         <v>45075</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17795,7 +17795,7 @@
         <v>45628.64818287037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17852,7 +17852,7 @@
         <v>45771.36829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17909,7 +17909,7 @@
         <v>44957.62646990741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17966,7 +17966,7 @@
         <v>45608.7362037037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18023,7 +18023,7 @@
         <v>46008.65475694444</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18080,7 +18080,7 @@
         <v>46010</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18137,7 +18137,7 @@
         <v>45021.84559027778</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18194,7 +18194,7 @@
         <v>45271.47798611111</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18251,7 +18251,7 @@
         <v>44852</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18308,7 +18308,7 @@
         <v>45700.84613425926</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18365,7 +18365,7 @@
         <v>45166.87391203704</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18422,7 +18422,7 @@
         <v>44445</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18479,7 +18479,7 @@
         <v>45705.75006944445</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18536,7 +18536,7 @@
         <v>46014.65982638889</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18593,7 +18593,7 @@
         <v>46014.66287037037</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18650,7 +18650,7 @@
         <v>45708.44409722222</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18707,7 +18707,7 @@
         <v>45708.47453703704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>45699.31804398148</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18821,7 +18821,7 @@
         <v>44964.28975694445</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18878,7 +18878,7 @@
         <v>45391.5203587963</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18935,7 +18935,7 @@
         <v>45152</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18992,7 +18992,7 @@
         <v>45737.32966435186</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19049,7 +19049,7 @@
         <v>44953</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19106,7 +19106,7 @@
         <v>45757.61700231482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19163,7 +19163,7 @@
         <v>44446</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>45569.65767361111</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>45378.65465277778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44855</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>45700.84496527778</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>45349.37376157408</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         <v>45091</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19562,7 +19562,7 @@
         <v>45546.54806712963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19619,7 +19619,7 @@
         <v>45576.44601851852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19676,7 +19676,7 @@
         <v>45011</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19733,7 +19733,7 @@
         <v>44907.57800925926</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>44378</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>44637</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>45608.73741898148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19961,7 +19961,7 @@
         <v>45156.63964120371</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45465.44271990741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45630.27112268518</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20137,7 +20137,7 @@
         <v>44949</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20194,7 +20194,7 @@
         <v>45440.3950462963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20251,7 +20251,7 @@
         <v>45271.4643287037</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20308,7 +20308,7 @@
         <v>45015</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20365,7 +20365,7 @@
         <v>44977.82046296296</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20422,7 +20422,7 @@
         <v>45258.31546296296</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20479,7 +20479,7 @@
         <v>45166.87197916667</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20536,7 +20536,7 @@
         <v>44816.71021990741</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         <v>45596.39893518519</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20650,7 +20650,7 @@
         <v>45173.36982638889</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20707,7 +20707,7 @@
         <v>44358</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20764,7 +20764,7 @@
         <v>45607.62167824074</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>45706.60927083333</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>45749.82695601852</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>45465.42688657407</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45541.41628472223</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45618.45256944445</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>45429.89168981482</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44456</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>45177.37849537037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>45754.64701388889</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>45594.92625</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>45721.55325231481</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>45519.61547453704</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>45792.53560185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>45792.53724537037</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>45681</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45630.85815972222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45839.68944444445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44621.49918981481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>45817.48946759259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>46042.60815972222</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>44868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45274</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45630.84596064815</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45240</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>44803</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45483.40099537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1753,14 +1753,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 4205-2026</t>
+          <t>A 39240-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>46044.71936342592</v>
+        <v>45889.33890046296</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1800,42 +1800,42 @@
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 4205-2026 artfynd.xlsx", "A 4205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 39240-2025 artfynd.xlsx", "A 39240-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 4205-2026 karta.png", "A 4205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 39240-2025 karta.png", "A 39240-2025")</f>
         <v/>
       </c>
+      <c r="U15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/knärot/A 39240-2025 karta knärot.png", "A 39240-2025")</f>
+        <v/>
+      </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 4205-2026 FSC-klagomål.docx", "A 4205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 39240-2025 FSC-klagomål.docx", "A 39240-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 4205-2026 FSC-klagomål mail.docx", "A 4205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 39240-2025 FSC-klagomål mail.docx", "A 39240-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 4205-2026 tillsynsbegäran.docx", "A 4205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 39240-2025 tillsynsbegäran.docx", "A 39240-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 4205-2026 tillsynsbegäran mail.docx", "A 4205-2026")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 4205-2026 prioriterade fågelarter.docx", "A 4205-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 39240-2025 tillsynsbegäran mail.docx", "A 39240-2025")</f>
         <v/>
       </c>
     </row>
@@ -1849,7 +1849,7 @@
         <v>45366.55957175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1927,14 +1927,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 39240-2025</t>
+          <t>A 19620-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45889.33890046296</v>
+        <v>45770.62328703704</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1947,19 +1947,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>7.6</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1974,56 +1974,52 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 39240-2025 artfynd.xlsx", "A 39240-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 19620-2025 artfynd.xlsx", "A 19620-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 39240-2025 karta.png", "A 39240-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 19620-2025 karta.png", "A 19620-2025")</f>
         <v/>
       </c>
-      <c r="U17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/knärot/A 39240-2025 karta knärot.png", "A 39240-2025")</f>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 19620-2025 FSC-klagomål.docx", "A 19620-2025")</f>
         <v/>
       </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 39240-2025 FSC-klagomål.docx", "A 39240-2025")</f>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 19620-2025 FSC-klagomål mail.docx", "A 19620-2025")</f>
         <v/>
       </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 39240-2025 FSC-klagomål mail.docx", "A 39240-2025")</f>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 19620-2025 tillsynsbegäran.docx", "A 19620-2025")</f>
         <v/>
       </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 39240-2025 tillsynsbegäran.docx", "A 39240-2025")</f>
-        <v/>
-      </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 39240-2025 tillsynsbegäran mail.docx", "A 39240-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 19620-2025 tillsynsbegäran mail.docx", "A 19620-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 19620-2025</t>
+          <t>A 63493-2023</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45770.62328703704</v>
+        <v>45274</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2035,17 +2031,22 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>7.6</v>
+        <v>3.7</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2060,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2070,45 +2071,49 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 19620-2025 artfynd.xlsx", "A 19620-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 63493-2023 artfynd.xlsx", "A 63493-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 19620-2025 karta.png", "A 19620-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 63493-2023 karta.png", "A 63493-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 19620-2025 FSC-klagomål.docx", "A 19620-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 63493-2023 FSC-klagomål.docx", "A 63493-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 19620-2025 FSC-klagomål mail.docx", "A 19620-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 63493-2023 FSC-klagomål mail.docx", "A 63493-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 19620-2025 tillsynsbegäran.docx", "A 19620-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 63493-2023 tillsynsbegäran.docx", "A 63493-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 19620-2025 tillsynsbegäran mail.docx", "A 19620-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 63493-2023 tillsynsbegäran mail.docx", "A 63493-2023")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 63493-2023 prioriterade fågelarter.docx", "A 63493-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 63493-2023</t>
+          <t>A 64182-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45274</v>
+        <v>45279.65201388889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2126,7 +2131,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2160,49 +2165,45 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 63493-2023 artfynd.xlsx", "A 63493-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 64182-2023 artfynd.xlsx", "A 64182-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 63493-2023 karta.png", "A 63493-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 64182-2023 karta.png", "A 64182-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 63493-2023 FSC-klagomål.docx", "A 63493-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 64182-2023 FSC-klagomål.docx", "A 64182-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 63493-2023 FSC-klagomål mail.docx", "A 63493-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 64182-2023 FSC-klagomål mail.docx", "A 64182-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 63493-2023 tillsynsbegäran.docx", "A 63493-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 64182-2023 tillsynsbegäran.docx", "A 64182-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 63493-2023 tillsynsbegäran mail.docx", "A 63493-2023")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 63493-2023 prioriterade fågelarter.docx", "A 63493-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 64182-2023 tillsynsbegäran mail.docx", "A 64182-2023")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 64182-2023</t>
+          <t>A 57759-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45279.65201388889</v>
+        <v>45630.84898148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2220,7 +2221,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2229,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2244,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2254,45 +2255,49 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 64182-2023 artfynd.xlsx", "A 64182-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 57759-2024 artfynd.xlsx", "A 57759-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 64182-2023 karta.png", "A 64182-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 57759-2024 karta.png", "A 57759-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 64182-2023 FSC-klagomål.docx", "A 64182-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 57759-2024 FSC-klagomål.docx", "A 57759-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 64182-2023 FSC-klagomål mail.docx", "A 64182-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 57759-2024 FSC-klagomål mail.docx", "A 57759-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 64182-2023 tillsynsbegäran.docx", "A 64182-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 57759-2024 tillsynsbegäran.docx", "A 57759-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 64182-2023 tillsynsbegäran mail.docx", "A 64182-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 57759-2024 tillsynsbegäran mail.docx", "A 57759-2024")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 57759-2024 prioriterade fågelarter.docx", "A 57759-2024")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 57759-2024</t>
+          <t>A 64082-2023</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45630.84898148148</v>
+        <v>45279</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2310,7 +2315,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
@@ -2344,49 +2349,49 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Grönsångare</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 57759-2024 artfynd.xlsx", "A 57759-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 64082-2023 artfynd.xlsx", "A 64082-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 57759-2024 karta.png", "A 57759-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 64082-2023 karta.png", "A 64082-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 57759-2024 FSC-klagomål.docx", "A 57759-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 64082-2023 FSC-klagomål.docx", "A 64082-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 57759-2024 FSC-klagomål mail.docx", "A 57759-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 64082-2023 FSC-klagomål mail.docx", "A 64082-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 57759-2024 tillsynsbegäran.docx", "A 57759-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 64082-2023 tillsynsbegäran.docx", "A 64082-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 57759-2024 tillsynsbegäran mail.docx", "A 57759-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 64082-2023 tillsynsbegäran mail.docx", "A 64082-2023")</f>
         <v/>
       </c>
       <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 57759-2024 prioriterade fågelarter.docx", "A 57759-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 64082-2023 prioriterade fågelarter.docx", "A 64082-2023")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 64082-2023</t>
+          <t>A 4205-2026</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>45279</v>
+        <v>46044.71936342592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,13 +2403,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>0.7</v>
+        <v>5.8</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -2438,49 +2438,49 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>Grönsångare</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 64082-2023 artfynd.xlsx", "A 64082-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 4205-2026 artfynd.xlsx", "A 4205-2026")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 64082-2023 karta.png", "A 64082-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 4205-2026 karta.png", "A 4205-2026")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 64082-2023 FSC-klagomål.docx", "A 64082-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 4205-2026 FSC-klagomål.docx", "A 4205-2026")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 64082-2023 FSC-klagomål mail.docx", "A 64082-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 4205-2026 FSC-klagomål mail.docx", "A 4205-2026")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 64082-2023 tillsynsbegäran.docx", "A 64082-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 4205-2026 tillsynsbegäran.docx", "A 4205-2026")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 64082-2023 tillsynsbegäran mail.docx", "A 64082-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 4205-2026 tillsynsbegäran mail.docx", "A 4205-2026")</f>
         <v/>
       </c>
       <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 64082-2023 prioriterade fågelarter.docx", "A 64082-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 4205-2026 prioriterade fågelarter.docx", "A 4205-2026")</f>
         <v/>
       </c>
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 8209-2021</t>
+          <t>A 5383-2024</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44244</v>
+        <v>45330</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2492,23 +2492,28 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -2520,56 +2525,52 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>Björktrast</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 8209-2021 artfynd.xlsx", "A 8209-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 5383-2024 artfynd.xlsx", "A 5383-2024")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 8209-2021 karta.png", "A 8209-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 5383-2024 karta.png", "A 5383-2024")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 8209-2021 FSC-klagomål.docx", "A 8209-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 5383-2024 FSC-klagomål.docx", "A 5383-2024")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 8209-2021 FSC-klagomål mail.docx", "A 8209-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 5383-2024 FSC-klagomål mail.docx", "A 5383-2024")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 8209-2021 tillsynsbegäran.docx", "A 8209-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 5383-2024 tillsynsbegäran.docx", "A 5383-2024")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 8209-2021 tillsynsbegäran mail.docx", "A 8209-2021")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 8209-2021 prioriterade fågelarter.docx", "A 8209-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 5383-2024 tillsynsbegäran mail.docx", "A 5383-2024")</f>
         <v/>
       </c>
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 5383-2024</t>
+          <t>A 21662-2024</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>45330</v>
+        <v>45442.38009259259</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2581,28 +2582,23 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2614,52 +2610,56 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Ärtsångare</t>
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 5383-2024 artfynd.xlsx", "A 5383-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 21662-2024 artfynd.xlsx", "A 21662-2024")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 5383-2024 karta.png", "A 5383-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 21662-2024 karta.png", "A 21662-2024")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 5383-2024 FSC-klagomål.docx", "A 5383-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 21662-2024 FSC-klagomål.docx", "A 21662-2024")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 5383-2024 FSC-klagomål mail.docx", "A 5383-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 21662-2024 FSC-klagomål mail.docx", "A 21662-2024")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 5383-2024 tillsynsbegäran.docx", "A 5383-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 21662-2024 tillsynsbegäran.docx", "A 21662-2024")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 5383-2024 tillsynsbegäran mail.docx", "A 5383-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 21662-2024 tillsynsbegäran mail.docx", "A 21662-2024")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 21662-2024 prioriterade fågelarter.docx", "A 21662-2024")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 21662-2024</t>
+          <t>A 11987-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>45442.38009259259</v>
+        <v>44266</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2672,16 +2672,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2696,59 +2696,27 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Ärtsångare</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/artfynd/A 21662-2024 artfynd.xlsx", "A 21662-2024")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/kartor/A 21662-2024 karta.png", "A 21662-2024")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomål/A 21662-2024 FSC-klagomål.docx", "A 21662-2024")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/klagomålsmail/A 21662-2024 FSC-klagomål mail.docx", "A 21662-2024")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsyn/A 21662-2024 tillsynsbegäran.docx", "A 21662-2024")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/tillsynsmail/A 21662-2024 tillsynsbegäran mail.docx", "A 21662-2024")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1489/fåglar/A 21662-2024 prioriterade fågelarter.docx", "A 21662-2024")</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 11987-2021</t>
+          <t>A 68899-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44266</v>
+        <v>44530.45506944445</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2761,7 +2729,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2798,14 +2766,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 68899-2021</t>
+          <t>A 10999-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44530.45506944445</v>
+        <v>44628</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2818,7 +2786,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2855,14 +2823,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 10999-2022</t>
+          <t>A 8777-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44628</v>
+        <v>44614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2875,7 +2843,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2912,14 +2880,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 8777-2022</t>
+          <t>A 42620-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44614</v>
+        <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2932,7 +2900,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2969,14 +2937,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 42620-2022</t>
+          <t>A 29559-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44831</v>
+        <v>44754.35361111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3026,14 +2994,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29559-2022</t>
+          <t>A 28251-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44754.35361111111</v>
+        <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3046,7 +3014,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>10.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3083,14 +3051,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28251-2021</t>
+          <t>A 42451-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44355</v>
+        <v>44427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3103,7 +3071,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>10.4</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3140,14 +3108,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42451-2021</t>
+          <t>A 12313-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44427</v>
+        <v>44637.59607638889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3160,7 +3128,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3197,14 +3165,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12313-2022</t>
+          <t>A 21732-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44637.59607638889</v>
+        <v>44708.34130787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3217,7 +3185,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.8</v>
+        <v>7.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3254,14 +3222,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21732-2022</t>
+          <t>A 23827-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44708.34130787037</v>
+        <v>44335</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3274,7 +3242,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,14 +3279,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 23827-2021</t>
+          <t>A 39299-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44335</v>
+        <v>44817</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3331,7 +3299,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3368,14 +3336,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 39299-2022</t>
+          <t>A 65624-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44817</v>
+        <v>44516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3388,7 +3356,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3425,14 +3393,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 65624-2021</t>
+          <t>A 31303-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44516</v>
+        <v>44773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3445,7 +3413,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3482,14 +3450,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31303-2022</t>
+          <t>A 47234-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44773</v>
+        <v>44852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3502,7 +3470,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3539,14 +3507,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47234-2022</t>
+          <t>A 29824-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44852</v>
+        <v>44362.621875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3559,7 +3527,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3596,14 +3564,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29824-2021</t>
+          <t>A 26636-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44362.621875</v>
+        <v>44348.69945601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3616,7 +3584,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3653,14 +3621,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 26636-2021</t>
+          <t>A 37512-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44348.69945601852</v>
+        <v>44809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3673,7 +3641,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3710,14 +3678,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 37512-2022</t>
+          <t>A 36106-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44809</v>
+        <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3729,8 +3697,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3767,14 +3740,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 36106-2021</t>
+          <t>A 1105-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44389</v>
+        <v>44572.31209490741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3786,13 +3759,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3829,14 +3797,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1105-2022</t>
+          <t>A 47187-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44572.31209490741</v>
+        <v>44447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3849,7 +3817,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3886,14 +3854,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 47187-2021</t>
+          <t>A 14359-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44447</v>
+        <v>44652.45527777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3906,7 +3874,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3943,14 +3911,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 14359-2022</t>
+          <t>A 64211-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44652.45527777778</v>
+        <v>44510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3963,7 +3931,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.1</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4000,14 +3968,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 64211-2021</t>
+          <t>A 65210-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44510</v>
+        <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4057,14 +4025,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 65210-2021</t>
+          <t>A 60657-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44515</v>
+        <v>44496</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4077,7 +4045,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4114,14 +4082,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60657-2021</t>
+          <t>A 70426-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44496</v>
+        <v>44536.6102662037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4134,7 +4102,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4178,7 +4146,7 @@
         <v>44439</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4228,14 +4196,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 70426-2021</t>
+          <t>A 73187-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44536.6102662037</v>
+        <v>44550</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4248,7 +4216,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4285,14 +4253,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 73187-2021</t>
+          <t>A 51167-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44550</v>
+        <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4305,7 +4273,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4342,14 +4310,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51167-2021</t>
+          <t>A 981-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44461</v>
+        <v>44568</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4362,7 +4330,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4399,14 +4367,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 981-2022</t>
+          <t>A 37509-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44568</v>
+        <v>44809</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4419,7 +4387,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4456,14 +4424,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 37509-2022</t>
+          <t>A 3045-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44809</v>
+        <v>44582</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4476,7 +4444,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4513,14 +4481,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 3045-2022</t>
+          <t>A 23164-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44582</v>
+        <v>44332</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4533,7 +4501,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>13.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4570,14 +4538,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23164-2021</t>
+          <t>A 23129-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44332</v>
+        <v>44719.59027777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4590,7 +4558,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>13.1</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4627,14 +4595,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23129-2022</t>
+          <t>A 34684-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44719.59027777778</v>
+        <v>44795.51157407407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4647,7 +4615,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4684,14 +4652,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34684-2022</t>
+          <t>A 9726-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44795.51157407407</v>
+        <v>44252</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4704,7 +4672,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4741,14 +4709,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9726-2021</t>
+          <t>A 12884-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44252</v>
+        <v>44642.57876157408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4761,7 +4729,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4798,14 +4766,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12884-2022</t>
+          <t>A 24464-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44642.57876157408</v>
+        <v>44726</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4818,7 +4786,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4855,14 +4823,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 24464-2022</t>
+          <t>A 33769-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44726</v>
+        <v>44378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4875,7 +4843,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.800000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4912,14 +4880,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 33769-2021</t>
+          <t>A 11399-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44378</v>
+        <v>44263</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4932,7 +4900,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4969,14 +4937,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11399-2021</t>
+          <t>A 15802-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44263</v>
+        <v>45748.65071759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4989,7 +4957,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5026,14 +4994,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 15802-2025</t>
+          <t>A 58410-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45748.65071759259</v>
+        <v>45634.74640046297</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5046,7 +5014,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5083,14 +5051,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 58410-2024</t>
+          <t>A 8980-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45634.74640046297</v>
+        <v>44979.53782407408</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5103,7 +5071,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5147,7 +5115,7 @@
         <v>45456.38</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5197,14 +5165,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8980-2023</t>
+          <t>A 31873-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44979.53782407408</v>
+        <v>45118</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5217,7 +5185,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5254,14 +5222,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 31873-2023</t>
+          <t>A 58990-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45118</v>
+        <v>44903</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5273,8 +5241,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5318,7 +5291,7 @@
         <v>44991.85997685185</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5368,14 +5341,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 58990-2022</t>
+          <t>A 3097-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44903</v>
+        <v>45316.46585648148</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5387,13 +5360,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5430,14 +5398,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 3097-2024</t>
+          <t>A 261-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45316.46585648148</v>
+        <v>45660.4503587963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5450,7 +5418,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5494,7 +5462,7 @@
         <v>44582.60462962963</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5544,14 +5512,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 50633-2023</t>
+          <t>A 59303-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45210</v>
+        <v>45637.66935185185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5564,7 +5532,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5601,14 +5569,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 261-2025</t>
+          <t>A 36120-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45660.4503587963</v>
+        <v>44389</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5620,8 +5588,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5658,14 +5631,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25749-2024</t>
+          <t>A 1937-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45465.44537037037</v>
+        <v>45671.91678240741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5677,8 +5650,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5715,14 +5693,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36120-2021</t>
+          <t>A 54615-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44389</v>
+        <v>45617.72695601852</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5734,13 +5712,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5777,14 +5750,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1937-2025</t>
+          <t>A 50633-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45671.91678240741</v>
+        <v>45210</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5796,13 +5769,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>7.6</v>
+        <v>4.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5839,14 +5807,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 54615-2024</t>
+          <t>A 55294-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45617.72695601852</v>
+        <v>45969.41967592593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5859,7 +5827,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5896,14 +5864,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 59303-2024</t>
+          <t>A 25749-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45637.66935185185</v>
+        <v>45465.44537037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5916,7 +5884,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5953,14 +5921,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 42054-2023</t>
+          <t>A 33491-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45177</v>
+        <v>45519.61547453704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5973,7 +5941,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6010,14 +5978,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 45323-2024</t>
+          <t>A 42054-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45576.44700231482</v>
+        <v>45177</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6030,7 +5998,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6067,14 +6035,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27431-2023</t>
+          <t>A 21328-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45097.38552083333</v>
+        <v>45782.35883101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6087,7 +6055,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6124,14 +6092,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5023-2024</t>
+          <t>A 55775-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45329.75289351852</v>
+        <v>45972</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6144,7 +6112,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6188,7 +6156,7 @@
         <v>45015</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6238,14 +6206,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 21328-2025</t>
+          <t>A 57912-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45782.35883101852</v>
+        <v>45972</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6258,7 +6226,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6295,14 +6263,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8555-2024</t>
+          <t>A 45323-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45355</v>
+        <v>45576.44700231482</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6315,7 +6283,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6352,14 +6320,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 52297-2024</t>
+          <t>A 23532-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45608.73481481482</v>
+        <v>45792.53560185185</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6372,7 +6340,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6409,14 +6377,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 52302-2024</t>
+          <t>A 27431-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45608.74045138889</v>
+        <v>45097.38552083333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6429,7 +6397,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6466,14 +6434,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10689-2021</t>
+          <t>A 23533-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44258</v>
+        <v>45792.53724537037</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6486,7 +6454,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6523,14 +6491,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4203-2026</t>
+          <t>A 5023-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46044.7133912037</v>
+        <v>45329.75289351852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6543,7 +6511,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6580,14 +6548,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23532-2025</t>
+          <t>A 56311-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45792.53560185185</v>
+        <v>45974.6280787037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6600,7 +6568,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6637,14 +6605,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 23533-2025</t>
+          <t>A 56118-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45792.53724537037</v>
+        <v>45973.81604166667</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6657,7 +6625,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6694,14 +6662,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43435-2024</t>
+          <t>A 56116-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45568.64648148148</v>
+        <v>45973.81059027778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6714,7 +6682,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6751,14 +6719,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25746-2024</t>
+          <t>A 8555-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45465.44144675926</v>
+        <v>45355</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6771,7 +6739,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6808,14 +6776,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3748-2025</t>
+          <t>A 52297-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45681</v>
+        <v>45608.73481481482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6828,7 +6796,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6865,14 +6833,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32026-2024</t>
+          <t>A 52302-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45510.65791666666</v>
+        <v>45608.74045138889</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6885,7 +6853,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6922,14 +6890,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51909-2024</t>
+          <t>A 10689-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45607.5986574074</v>
+        <v>44258</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6942,7 +6910,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6979,14 +6947,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60026-2023</t>
+          <t>A 3748-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45258.31431712963</v>
+        <v>45681</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6999,7 +6967,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7036,14 +7004,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 59566-2023</t>
+          <t>A 43435-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45254</v>
+        <v>45568.64648148148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7056,7 +7024,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7093,14 +7061,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 36291-2024</t>
+          <t>A 32026-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45534.59996527778</v>
+        <v>45510.65791666666</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7113,7 +7081,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7150,14 +7118,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25562-2025</t>
+          <t>A 51909-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45803.45508101852</v>
+        <v>45607.5986574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7170,7 +7138,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7207,14 +7175,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 40242-2025</t>
+          <t>A 25746-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45894.87516203704</v>
+        <v>45465.44144675926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7227,7 +7195,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7264,14 +7232,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 26096-2025</t>
+          <t>A 40242-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45805.35203703704</v>
+        <v>45894.87516203704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7284,7 +7252,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7321,14 +7289,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25892-2025</t>
+          <t>A 60026-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45804.53835648148</v>
+        <v>45258.31431712963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7341,7 +7309,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7378,14 +7346,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25895-2025</t>
+          <t>A 25562-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45804.5450462963</v>
+        <v>45803.45508101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7398,7 +7366,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7435,14 +7403,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25896-2025</t>
+          <t>A 59566-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45804.54657407408</v>
+        <v>45254</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7455,7 +7423,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7492,14 +7460,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25897-2025</t>
+          <t>A 36291-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45804.5475</v>
+        <v>45534.59996527778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7512,7 +7480,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7549,14 +7517,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 51169-2021</t>
+          <t>A 40073-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44461</v>
+        <v>45894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7569,7 +7537,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7606,14 +7574,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4187-2026</t>
+          <t>A 26096-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46044.69255787037</v>
+        <v>45805.35203703704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7626,7 +7594,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7663,14 +7631,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11025-2021</t>
+          <t>A 40055-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44260.52003472222</v>
+        <v>45894</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7683,7 +7651,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.8</v>
+        <v>7.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7720,14 +7688,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 54579-2024</t>
+          <t>A 41454-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45617</v>
+        <v>45901.43854166667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7740,7 +7708,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7777,14 +7745,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5808-2024</t>
+          <t>A 25892-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45335.50540509259</v>
+        <v>45804.53835648148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7797,7 +7765,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7834,14 +7802,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5810-2024</t>
+          <t>A 41451-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45335</v>
+        <v>45901.43251157407</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7854,7 +7822,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7891,14 +7859,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 40073-2025</t>
+          <t>A 41452-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45894</v>
+        <v>45901.43643518518</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7911,7 +7879,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7948,14 +7916,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 40055-2025</t>
+          <t>A 25895-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45894</v>
+        <v>45804.5450462963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7968,7 +7936,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.3</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8005,14 +7973,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3352-2025</t>
+          <t>A 25896-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45679.87385416667</v>
+        <v>45804.54657407408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8025,7 +7993,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8062,14 +8030,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 26691-2025</t>
+          <t>A 25897-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45810.43835648148</v>
+        <v>45804.5475</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8082,7 +8050,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8119,14 +8087,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 41454-2025</t>
+          <t>A 41830-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45901.43854166667</v>
+        <v>45902.67804398148</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8139,7 +8107,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8176,14 +8144,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 12968-2025</t>
+          <t>A 42490-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45734.43648148148</v>
+        <v>45905.49694444444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8196,7 +8164,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8233,14 +8201,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 17260-2021</t>
+          <t>A 54579-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44298</v>
+        <v>45617</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8253,7 +8221,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8290,14 +8258,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12276-2024</t>
+          <t>A 51169-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45378.50021990741</v>
+        <v>44461</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8310,7 +8278,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8347,14 +8315,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 41451-2025</t>
+          <t>A 11025-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45901.43251157407</v>
+        <v>44260.52003472222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8367,7 +8335,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8404,14 +8372,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 41452-2025</t>
+          <t>A 26691-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45901.43643518518</v>
+        <v>45810.43835648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8424,7 +8392,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8461,14 +8429,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 27391-2025</t>
+          <t>A 12968-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45812.68253472223</v>
+        <v>45734.43648148148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8481,7 +8449,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8518,14 +8486,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 27202-2025</t>
+          <t>A 12276-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45812.39840277778</v>
+        <v>45378.50021990741</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8538,7 +8506,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8575,14 +8543,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 41830-2025</t>
+          <t>A 42672-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45902.67804398148</v>
+        <v>45908.30107638889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8595,7 +8563,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8632,14 +8600,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 42490-2025</t>
+          <t>A 5808-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45905.49694444444</v>
+        <v>45335.50540509259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8652,7 +8620,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8689,14 +8657,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 30478-2023</t>
+          <t>A 5810-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45111.600625</v>
+        <v>45335</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8709,7 +8677,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8746,14 +8714,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 27979-2025</t>
+          <t>A 27391-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45817.57240740741</v>
+        <v>45812.68253472223</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8766,7 +8734,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8803,14 +8771,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 11539-2022</t>
+          <t>A 42710-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44631.40365740741</v>
+        <v>45908.37523148148</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8823,7 +8791,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8860,14 +8828,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 28168-2025</t>
+          <t>A 3352-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45818.37311342593</v>
+        <v>45679.87385416667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8880,7 +8848,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8917,14 +8885,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 46240-2023</t>
+          <t>A 42711-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45196.74399305556</v>
+        <v>45908.37621527778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8937,7 +8905,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.3</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8974,14 +8942,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 11024-2023</t>
+          <t>A 27202-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44991.86207175926</v>
+        <v>45812.39840277778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8994,7 +8962,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -9031,14 +8999,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 8599-2023</t>
+          <t>A 43262-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44977</v>
+        <v>45910.56927083333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9051,7 +9019,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -9088,14 +9056,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16117-2024</t>
+          <t>A 17260-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45406.4834837963</v>
+        <v>44298</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9108,7 +9076,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9145,14 +9113,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 42672-2025</t>
+          <t>A 27979-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45908.30107638889</v>
+        <v>45817.57240740741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9165,7 +9133,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9202,14 +9170,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 42710-2025</t>
+          <t>A 44103-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45908.37523148148</v>
+        <v>45915.56835648148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9222,7 +9190,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9259,14 +9227,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 42711-2025</t>
+          <t>A 30478-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45908.37621527778</v>
+        <v>45111.600625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9279,7 +9247,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9316,14 +9284,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43262-2025</t>
+          <t>A 44530-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45910.56927083333</v>
+        <v>45916.75508101852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9336,7 +9304,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9373,14 +9341,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10541-2025</t>
+          <t>A 28168-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45721.48103009259</v>
+        <v>45818.37311342593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9392,13 +9360,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G142" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9435,14 +9398,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 11127-2025</t>
+          <t>A 11539-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45723.64304398148</v>
+        <v>44631.40365740741</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9455,7 +9418,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9492,14 +9455,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 29837-2025</t>
+          <t>A 46240-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45826.27395833333</v>
+        <v>45196.74399305556</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9512,7 +9475,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9549,14 +9512,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11388-2025</t>
+          <t>A 11024-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45726.56748842593</v>
+        <v>44991.86207175926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9569,7 +9532,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9606,14 +9569,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 19618-2025</t>
+          <t>A 8599-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45770.62131944444</v>
+        <v>44977</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9626,7 +9589,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.9</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9663,14 +9626,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 11462-2025</t>
+          <t>A 16117-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45726.65605324074</v>
+        <v>45406.4834837963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9683,7 +9646,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9720,14 +9683,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 11458-2025</t>
+          <t>A 10541-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45726</v>
+        <v>45721.48103009259</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9739,8 +9702,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9777,14 +9745,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 44103-2025</t>
+          <t>A 11127-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45915.56835648148</v>
+        <v>45723.64304398148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9797,7 +9765,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9834,14 +9802,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 11459-2025</t>
+          <t>A 45610-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45726</v>
+        <v>45922.7158449074</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9854,7 +9822,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9891,14 +9859,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58558-2021</t>
+          <t>A 29837-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44488</v>
+        <v>45826.27395833333</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9911,7 +9879,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9948,14 +9916,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9851-2025</t>
+          <t>A 11388-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45716</v>
+        <v>45726.56748842593</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9968,7 +9936,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -10005,14 +9973,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45328-2024</t>
+          <t>A 11462-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45576.45584490741</v>
+        <v>45726.65605324074</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10025,7 +9993,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -10062,14 +10030,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 44530-2025</t>
+          <t>A 19618-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45916.75508101852</v>
+        <v>45770.62131944444</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10082,7 +10050,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>5.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10119,14 +10087,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 59881-2024</t>
+          <t>A 11458-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45640.78921296296</v>
+        <v>45726</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10139,7 +10107,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10176,14 +10144,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 8560-2024</t>
+          <t>A 11459-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45355.58215277778</v>
+        <v>45726</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10196,7 +10164,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10233,14 +10201,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62818-2025</t>
+          <t>A 58558-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>46008.65475694444</v>
+        <v>44488</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10253,7 +10221,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10290,14 +10258,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 32074-2025</t>
+          <t>A 9851-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45835.44943287037</v>
+        <v>45716</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10310,7 +10278,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.4</v>
+        <v>6.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10347,14 +10315,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 4661-2025</t>
+          <t>A 46064-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45687.71972222222</v>
+        <v>45924.48055555556</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10367,7 +10335,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10404,14 +10372,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45610-2025</t>
+          <t>A 45328-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45922.7158449074</v>
+        <v>45576.45584490741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10424,7 +10392,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10461,14 +10429,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 60904-2023</t>
+          <t>A 59881-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45261</v>
+        <v>45640.78921296296</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10481,7 +10449,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10518,14 +10486,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 32463-2025</t>
+          <t>A 47143-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45838.41680555556</v>
+        <v>45929.7067824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10538,7 +10506,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10575,14 +10543,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3355-2023</t>
+          <t>A 46846-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44949.47299768519</v>
+        <v>45928.68194444444</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10595,7 +10563,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10632,14 +10600,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 8828-2024</t>
+          <t>A 8560-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45356.67628472222</v>
+        <v>45355.58215277778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10652,7 +10620,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10689,14 +10657,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46064-2025</t>
+          <t>A 47492-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45924.48055555556</v>
+        <v>45930.73918981481</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10709,7 +10677,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10746,14 +10714,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 33490-2025</t>
+          <t>A 4661-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45841.50623842593</v>
+        <v>45687.71972222222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10766,7 +10734,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>7.9</v>
+        <v>2.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10803,14 +10771,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 47143-2025</t>
+          <t>A 47562-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45929.7067824074</v>
+        <v>45931.38734953704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10823,7 +10791,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.5</v>
+        <v>7.5</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10860,14 +10828,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 46846-2025</t>
+          <t>A 32074-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45928.68194444444</v>
+        <v>45835.44943287037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10880,7 +10848,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10917,14 +10885,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 47492-2025</t>
+          <t>A 58630-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45930.73918981481</v>
+        <v>45986.4834837963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10937,7 +10905,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10974,14 +10942,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 63143-2021</t>
+          <t>A 64194-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44505.79517361111</v>
+        <v>45279.68320601852</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10993,8 +10961,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -11031,14 +11004,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 47562-2025</t>
+          <t>A 16609-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45931.38734953704</v>
+        <v>44672</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11051,7 +11024,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>7.5</v>
+        <v>4.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -11088,14 +11061,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 19553-2024</t>
+          <t>A 16612-2022</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45429</v>
+        <v>44672</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11108,7 +11081,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11145,14 +11118,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 64061-2025</t>
+          <t>A 60904-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>46010</v>
+        <v>45261</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11165,7 +11138,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11202,14 +11175,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 64194-2023</t>
+          <t>A 3355-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45279.68320601852</v>
+        <v>44949.47299768519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11221,13 +11194,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11264,14 +11232,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53628-2023</t>
+          <t>A 8828-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45230.58957175926</v>
+        <v>45356.67628472222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11284,7 +11252,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11321,14 +11289,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 24579-2022</t>
+          <t>A 64070-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44727</v>
+        <v>45279</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11340,8 +11308,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>10.4</v>
+        <v>2.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11378,14 +11351,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 16609-2022</t>
+          <t>A 64058-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44672</v>
+        <v>45279.35271990741</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11397,8 +11370,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11435,14 +11413,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 16612-2022</t>
+          <t>A 32463-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44672</v>
+        <v>45838.41680555556</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11455,7 +11433,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11492,14 +11470,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 35003-2025</t>
+          <t>A 49418-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45850.66096064815</v>
+        <v>45938.69974537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11512,7 +11490,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11549,14 +11527,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 59292-2023</t>
+          <t>A 48942-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45253</v>
+        <v>45937</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11569,7 +11547,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11606,14 +11584,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 35004-2025</t>
+          <t>A 48966-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45850.66271990741</v>
+        <v>45937</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11626,7 +11604,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11663,14 +11641,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 64070-2023</t>
+          <t>A 49417-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45279</v>
+        <v>45938.69787037037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11682,13 +11660,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G182" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11725,14 +11698,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 64058-2023</t>
+          <t>A 49420-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45279.35271990741</v>
+        <v>45938.70332175926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11744,13 +11717,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11787,14 +11755,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 32286-2024</t>
+          <t>A 49419-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45512.4183449074</v>
+        <v>45938.70142361111</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11807,7 +11775,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11844,14 +11812,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 49418-2025</t>
+          <t>A 33490-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45938.69974537037</v>
+        <v>45841.50623842593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11864,7 +11832,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>7.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11901,14 +11869,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 48942-2025</t>
+          <t>A 63143-2021</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45937</v>
+        <v>44505.79517361111</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11921,7 +11889,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11958,14 +11926,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 48966-2025</t>
+          <t>A 10916-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45937</v>
+        <v>45722</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11978,7 +11946,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -12015,14 +11983,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49417-2025</t>
+          <t>A 27588-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45938.69787037037</v>
+        <v>45097</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12035,7 +12003,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.9</v>
+        <v>12.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -12072,14 +12040,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49420-2025</t>
+          <t>A 49843-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45938.70332175926</v>
+        <v>45940.47415509259</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12092,7 +12060,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12129,14 +12097,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 17550-2025</t>
+          <t>A 53628-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45757.61144675926</v>
+        <v>45230.58957175926</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12149,7 +12117,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12186,14 +12154,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 49419-2025</t>
+          <t>A 24579-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45938.70142361111</v>
+        <v>44727</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12206,7 +12174,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>2.9</v>
+        <v>10.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12243,14 +12211,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 51051-2023</t>
+          <t>A 45612-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45218.63770833334</v>
+        <v>45922.7187037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12300,14 +12268,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 33721-2024</t>
+          <t>A 19553-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45520.5412037037</v>
+        <v>45429</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12320,7 +12288,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12357,14 +12325,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 10916-2025</t>
+          <t>A 58636-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45722</v>
+        <v>45986.48988425926</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12377,7 +12345,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.4</v>
+        <v>0.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12414,14 +12382,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 27588-2023</t>
+          <t>A 35003-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45097</v>
+        <v>45850.66096064815</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12434,7 +12402,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>12.8</v>
+        <v>1.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12471,14 +12439,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 23273-2021</t>
+          <t>A 32286-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44333</v>
+        <v>45512.4183449074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12491,7 +12459,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12528,14 +12496,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 49843-2025</t>
+          <t>A 59292-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45940.47415509259</v>
+        <v>45253</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12548,7 +12516,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12585,14 +12553,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 45612-2025</t>
+          <t>A 35004-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45922.7187037037</v>
+        <v>45850.66271990741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12605,7 +12573,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12642,14 +12610,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3769-2025</t>
+          <t>A 51051-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45681.60335648148</v>
+        <v>45218.63770833334</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12662,7 +12630,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12699,14 +12667,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5382-2024</t>
+          <t>A 33721-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45330</v>
+        <v>45520.5412037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12718,13 +12686,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12761,14 +12724,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 6842-2025</t>
+          <t>A 23273-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45700.84613425926</v>
+        <v>44333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12781,7 +12744,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12818,14 +12781,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 4846-2024</t>
+          <t>A 17550-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45329.36071759259</v>
+        <v>45757.61144675926</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12838,7 +12801,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12875,14 +12838,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 26164-2024</t>
+          <t>A 51987-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45468.55118055556</v>
+        <v>45952.57729166667</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12895,7 +12858,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12932,14 +12895,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 42619-2022</t>
+          <t>A 51984-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44831.86186342593</v>
+        <v>45952.57494212963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12952,7 +12915,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12989,14 +12952,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8981-2023</t>
+          <t>A 3769-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44979</v>
+        <v>45681.60335648148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13009,7 +12972,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -13046,14 +13009,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 51987-2025</t>
+          <t>A 5382-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45952.57729166667</v>
+        <v>45330</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13065,8 +13028,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -13103,14 +13071,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 51984-2025</t>
+          <t>A 4846-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45952.57494212963</v>
+        <v>45329.36071759259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13123,7 +13091,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13160,14 +13128,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 57491-2022</t>
+          <t>A 53222-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44896</v>
+        <v>45958.6034375</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13180,7 +13148,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13217,14 +13185,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7631-2025</t>
+          <t>A 53223-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45705.75006944445</v>
+        <v>45958.60418981482</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13237,7 +13205,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13274,14 +13242,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 63716-2025</t>
+          <t>A 26164-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46014.65982638889</v>
+        <v>45468.55118055556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13294,7 +13262,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13331,14 +13299,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 63717-2025</t>
+          <t>A 22186-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46014.66287037037</v>
+        <v>45785</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13351,7 +13319,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13388,14 +13356,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 8210-2025</t>
+          <t>A 8981-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45708.44409722222</v>
+        <v>44979</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13408,7 +13376,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13445,14 +13413,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8234-2025</t>
+          <t>A 53661-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45708.47453703704</v>
+        <v>45960.54053240741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13465,7 +13433,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13502,14 +13470,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 6341-2025</t>
+          <t>A 57491-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45699.31804398148</v>
+        <v>44896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13522,7 +13490,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13559,14 +13527,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 53222-2025</t>
+          <t>A 54004-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45958.6034375</v>
+        <v>45961.60966435185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13579,7 +13547,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13616,14 +13584,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 53223-2025</t>
+          <t>A 59396-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45958.60418981482</v>
+        <v>45989.47740740741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13635,8 +13603,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13673,14 +13646,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 6120-2023</t>
+          <t>A 54082-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44964</v>
+        <v>45964.38070601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13693,7 +13666,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13730,14 +13703,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 36120-2021</t>
+          <t>A 54122-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44389</v>
+        <v>45964.4522337963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13749,13 +13722,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Allmännings- och besparingsskogar</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13792,14 +13760,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 38970-2025</t>
+          <t>A 54073-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45887.71134259259</v>
+        <v>45964.3555324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13812,7 +13780,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13849,14 +13817,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 53661-2025</t>
+          <t>A 54074-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45960.54053240741</v>
+        <v>45964.35775462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13869,7 +13837,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13906,14 +13874,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 54004-2025</t>
+          <t>A 59397-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45961.60966435185</v>
+        <v>45989.4797800926</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13925,8 +13893,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13963,14 +13936,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 49472-2023</t>
+          <t>A 27283-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45211</v>
+        <v>45812.54665509259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13983,7 +13956,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -14020,14 +13993,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 54082-2025</t>
+          <t>A 49472-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45964.38070601852</v>
+        <v>45211</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14040,7 +14013,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.7</v>
+        <v>5.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -14077,14 +14050,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 54122-2025</t>
+          <t>A 54701-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45964.4522337963</v>
+        <v>45966.47996527778</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14097,7 +14070,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14134,14 +14107,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 51178-2023</t>
+          <t>A 54644-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45219.39265046296</v>
+        <v>45966.37148148148</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14154,7 +14127,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14191,14 +14164,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 54073-2025</t>
+          <t>A 54643-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45964.3555324074</v>
+        <v>45966.36814814815</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14211,7 +14184,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14248,14 +14221,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 25744-2024</t>
+          <t>A 54699-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45465.43989583333</v>
+        <v>45966.47914351852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14268,7 +14241,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6.1</v>
+        <v>2.2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14305,14 +14278,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 25748-2024</t>
+          <t>A 55435-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45465.44412037037</v>
+        <v>45971.48229166667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14325,7 +14298,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14362,14 +14335,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 54074-2025</t>
+          <t>A 42619-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45964.35775462963</v>
+        <v>44831.86186342593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14382,7 +14355,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14419,14 +14392,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 54701-2025</t>
+          <t>A 51178-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45966.47996527778</v>
+        <v>45219.39265046296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14439,7 +14412,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14476,14 +14449,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 54644-2025</t>
+          <t>A 25744-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45966.37148148148</v>
+        <v>45465.43989583333</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14496,7 +14469,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14533,14 +14506,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 54643-2025</t>
+          <t>A 25748-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45966.36814814815</v>
+        <v>45465.44412037037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14553,7 +14526,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14590,14 +14563,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 54699-2025</t>
+          <t>A 1837-2026</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45966.47914351852</v>
+        <v>46035.39015046296</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14610,7 +14583,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14647,14 +14620,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 55435-2025</t>
+          <t>A 57489-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45971.48229166667</v>
+        <v>44896</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14667,7 +14640,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14704,14 +14677,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 57489-2022</t>
+          <t>A 2093-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44896</v>
+        <v>46036.36211805556</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14724,7 +14697,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14761,14 +14734,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 55294-2025</t>
+          <t>A 20123-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45969.41967592593</v>
+        <v>45772.49256944445</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14781,7 +14754,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14818,14 +14791,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 55775-2025</t>
+          <t>A 6120-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45972</v>
+        <v>44964</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14838,7 +14811,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14875,14 +14848,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 57912-2025</t>
+          <t>A 36120-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45972</v>
+        <v>44389</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14894,8 +14867,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Allmännings- och besparingsskogar</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14932,14 +14910,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 56311-2025</t>
+          <t>A 60239-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45974.6280787037</v>
+        <v>45994</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14952,7 +14930,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>5.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14989,14 +14967,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 56118-2025</t>
+          <t>A 33812-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45973.81604166667</v>
+        <v>45133.58770833333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15009,7 +14987,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -15046,14 +15024,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 56116-2025</t>
+          <t>A 38970-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45973.81059027778</v>
+        <v>45887.71134259259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15066,7 +15044,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15103,14 +15081,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 20123-2025</t>
+          <t>A 2253-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45772.49256944445</v>
+        <v>46031</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15123,7 +15101,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15160,14 +15138,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 33812-2023</t>
+          <t>A 9711-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45133.58770833333</v>
+        <v>44984</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15180,7 +15158,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15217,14 +15195,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 9711-2023</t>
+          <t>A 8080-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44984</v>
+        <v>44974</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15237,7 +15215,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15274,14 +15252,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8080-2023</t>
+          <t>A 3028-2026</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44974</v>
+        <v>46038.70267361111</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15294,7 +15272,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15331,14 +15309,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 8482-2026</t>
+          <t>A 3048-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46065.46873842592</v>
+        <v>46038.78969907408</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15351,7 +15329,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15388,14 +15366,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 58630-2025</t>
+          <t>A 3049-2026</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45986.4834837963</v>
+        <v>46038.79092592592</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15408,7 +15386,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15445,14 +15423,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 5757-2022</t>
+          <t>A 60811-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44596.48284722222</v>
+        <v>45999.4471875</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15465,7 +15443,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15502,14 +15480,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 58636-2025</t>
+          <t>A 5757-2022</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45986.48988425926</v>
+        <v>44596.48284722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15522,7 +15500,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15559,14 +15537,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 56752-2023</t>
+          <t>A 3008-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45244.36944444444</v>
+        <v>46038.6604050926</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15579,7 +15557,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15616,14 +15594,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 20448-2021</t>
+          <t>A 60725-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44315</v>
+        <v>45996</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15636,7 +15614,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15673,14 +15651,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 50312-2024</t>
+          <t>A 56752-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45600.65659722222</v>
+        <v>45244.36944444444</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15693,7 +15671,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15730,14 +15708,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 7577-2026</t>
+          <t>A 61205-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46061</v>
+        <v>46000</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15750,7 +15728,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.3</v>
+        <v>2.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15787,14 +15765,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 22186-2025</t>
+          <t>A 61134-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45785</v>
+        <v>46000.4978587963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15807,7 +15785,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15844,14 +15822,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 59396-2025</t>
+          <t>A 20448-2021</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45989.47740740741</v>
+        <v>44315</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15863,13 +15841,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15906,14 +15879,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 59397-2025</t>
+          <t>A 50312-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45989.4797800926</v>
+        <v>45600.65659722222</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15925,13 +15898,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15968,14 +15936,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 27283-2025</t>
+          <t>A 4203-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45812.54665509259</v>
+        <v>46044.7133912037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15988,7 +15956,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -16032,7 +16000,7 @@
         <v>45257.65560185185</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16089,7 +16057,7 @@
         <v>45673.36258101852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16139,14 +16107,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 1837-2026</t>
+          <t>A 4187-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46035.39015046296</v>
+        <v>46044.69255787037</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16159,7 +16127,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.8</v>
+        <v>5.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16203,7 +16171,7 @@
         <v>45271</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16265,7 +16233,7 @@
         <v>44615.82409722222</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16322,7 +16290,7 @@
         <v>44832.74553240741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16379,7 +16347,7 @@
         <v>44729.53085648148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16429,14 +16397,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 2093-2026</t>
+          <t>A 11119-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46036.36211805556</v>
+        <v>45371.38420138889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16449,7 +16417,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16486,14 +16454,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 11119-2024</t>
+          <t>A 18940-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45371.38420138889</v>
+        <v>45427.46807870371</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16506,7 +16474,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16543,14 +16511,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 60239-2025</t>
+          <t>A 17048-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45994</v>
+        <v>45412.43246527778</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16563,7 +16531,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16600,14 +16568,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 2253-2026</t>
+          <t>A 62818-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>46031</v>
+        <v>46008.65475694444</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16620,7 +16588,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16657,14 +16625,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 18940-2024</t>
+          <t>A 2362-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45427.46807870371</v>
+        <v>45310</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16677,7 +16645,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16714,14 +16682,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 3028-2026</t>
+          <t>A 2167-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46038.70267361111</v>
+        <v>45673.25934027778</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16733,8 +16701,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16771,14 +16744,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 3048-2026</t>
+          <t>A 2168-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46038.78969907408</v>
+        <v>45673.27136574074</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16790,8 +16763,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16828,14 +16806,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 3049-2026</t>
+          <t>A 64061-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46038.79092592592</v>
+        <v>46010</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16848,7 +16826,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16885,14 +16863,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 60811-2025</t>
+          <t>A 40293-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45999.4471875</v>
+        <v>44821</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16905,7 +16883,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>6.8</v>
+        <v>5.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16942,14 +16920,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 17048-2024</t>
+          <t>A 6842-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45412.43246527778</v>
+        <v>45700.84613425926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16962,7 +16940,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16999,14 +16977,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 3008-2026</t>
+          <t>A 7631-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>46038.6604050926</v>
+        <v>45705.75006944445</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17019,7 +16997,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>4.9</v>
+        <v>1.4</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -17056,14 +17034,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 60725-2025</t>
+          <t>A 63716-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45996</v>
+        <v>46014.65982638889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17076,7 +17054,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5.2</v>
+        <v>7.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17113,14 +17091,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 2362-2024</t>
+          <t>A 63717-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45310</v>
+        <v>46014.66287037037</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17133,7 +17111,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.4</v>
+        <v>3.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17170,14 +17148,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 61205-2025</t>
+          <t>A 8210-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46000</v>
+        <v>45708.44409722222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17190,7 +17168,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17227,14 +17205,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 2167-2025</t>
+          <t>A 8234-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45673.25934027778</v>
+        <v>45708.47453703704</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17246,13 +17224,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G279" t="n">
-        <v>8.4</v>
+        <v>1.6</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17289,14 +17262,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 2168-2025</t>
+          <t>A 6341-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45673.27136574074</v>
+        <v>45699.31804398148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17308,13 +17281,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G280" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17351,14 +17319,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 61134-2025</t>
+          <t>A 53887-2021</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>46000.4978587963</v>
+        <v>44469.68799768519</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17371,7 +17339,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17408,14 +17376,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 40293-2022</t>
+          <t>A 18159-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44821</v>
+        <v>45420.61472222222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17428,7 +17396,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17465,14 +17433,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 53887-2021</t>
+          <t>A 12600-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44469.68799768519</v>
+        <v>45380.80784722222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17485,7 +17453,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17522,14 +17490,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 18159-2024</t>
+          <t>A 16088-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45420.61472222222</v>
+        <v>45749.82921296296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17542,7 +17510,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17579,14 +17547,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 12600-2024</t>
+          <t>A 49467-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45380.80784722222</v>
+        <v>45211</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17599,7 +17567,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17636,14 +17604,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 16088-2025</t>
+          <t>A 24607-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45749.82921296296</v>
+        <v>44727</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17656,7 +17624,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>0.6</v>
+        <v>9.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17693,14 +17661,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 49467-2023</t>
+          <t>A 8482-2026</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45211</v>
+        <v>46065.46873842592</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17713,7 +17681,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17750,14 +17718,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 24607-2022</t>
+          <t>A 59956-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44727</v>
+        <v>45257.71068287037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17770,7 +17738,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>9.5</v>
+        <v>1.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17807,14 +17775,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 59956-2023</t>
+          <t>A 23559-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45257.71068287037</v>
+        <v>44721.47039351852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17827,7 +17795,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17864,14 +17832,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 23559-2022</t>
+          <t>A 39963-2021</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44721.47039351852</v>
+        <v>44418.31126157408</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17884,7 +17852,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17921,14 +17889,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 39963-2021</t>
+          <t>A 61734-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44418.31126157408</v>
+        <v>45265</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17941,7 +17909,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17978,14 +17946,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 61734-2023</t>
+          <t>A 7577-2026</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45265</v>
+        <v>46061</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17998,7 +17966,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -18042,7 +18010,7 @@
         <v>45399.42413194444</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18092,14 +18060,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 48082-2024</t>
+          <t>A 9362-2026</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45589.58722222222</v>
+        <v>46070.74601851852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18112,7 +18080,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18149,14 +18117,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 42531-2022</t>
+          <t>A 48082-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44831.61996527778</v>
+        <v>45589.58722222222</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18169,7 +18137,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18206,14 +18174,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 3618-2025</t>
+          <t>A 42531-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45681.36631944445</v>
+        <v>44831.61996527778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18226,7 +18194,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18263,14 +18231,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 21727-2022</t>
+          <t>A 3618-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44708.3287037037</v>
+        <v>45681.36631944445</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18283,7 +18251,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18320,14 +18288,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 23181-2023</t>
+          <t>A 21727-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45075</v>
+        <v>44708.3287037037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18340,7 +18308,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>13.1</v>
+        <v>3.8</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18377,14 +18345,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 56957-2024</t>
+          <t>A 23181-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45628.64818287037</v>
+        <v>45075</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18397,7 +18365,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.9</v>
+        <v>13.1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18434,14 +18402,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 19739-2025</t>
+          <t>A 56957-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45771.36829861111</v>
+        <v>45628.64818287037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18454,7 +18422,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18491,14 +18459,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 4806-2023</t>
+          <t>A 19739-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44957.62646990741</v>
+        <v>45771.36829861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18511,7 +18479,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18548,14 +18516,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 52298-2024</t>
+          <t>A 4806-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45608.7362037037</v>
+        <v>44957.62646990741</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18568,7 +18536,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18605,14 +18573,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 15798-2023</t>
+          <t>A 52298-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45021.84559027778</v>
+        <v>45608.7362037037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18625,7 +18593,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18662,14 +18630,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 62678-2023</t>
+          <t>A 15798-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45271.47798611111</v>
+        <v>45021.84559027778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18682,7 +18650,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18719,14 +18687,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 47233-2022</t>
+          <t>A 62678-2023</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44852</v>
+        <v>45271.47798611111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18739,7 +18707,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18776,14 +18744,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 39472-2023</t>
+          <t>A 47233-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45166.87391203704</v>
+        <v>44852</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18796,7 +18764,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18833,14 +18801,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 46491-2021</t>
+          <t>A 39472-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44445</v>
+        <v>45166.87391203704</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18853,7 +18821,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18890,14 +18858,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 5962-2023</t>
+          <t>A 46491-2021</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44964.28975694445</v>
+        <v>44445</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18910,7 +18878,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18947,14 +18915,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 13858-2024</t>
+          <t>A 5962-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45391.5203587963</v>
+        <v>44964.28975694445</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18967,7 +18935,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -19004,14 +18972,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 36332-2023</t>
+          <t>A 13858-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45152</v>
+        <v>45391.5203587963</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19024,7 +18992,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -19061,14 +19029,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 13699-2025</t>
+          <t>A 36332-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45737.32966435186</v>
+        <v>45152</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19081,7 +19049,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19118,14 +19086,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 4147-2023</t>
+          <t>A 13699-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44953</v>
+        <v>45737.32966435186</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19138,7 +19106,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19175,14 +19143,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 17553-2025</t>
+          <t>A 4147-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45757.61700231482</v>
+        <v>44953</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19195,7 +19163,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19232,14 +19200,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 46883-2021</t>
+          <t>A 17553-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44446</v>
+        <v>45757.61700231482</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19252,7 +19220,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>6.3</v>
+        <v>2.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19289,14 +19257,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 43741-2024</t>
+          <t>A 46883-2021</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45569.65767361111</v>
+        <v>44446</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19309,7 +19277,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.7</v>
+        <v>6.3</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19346,14 +19314,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 12322-2024</t>
+          <t>A 43741-2024</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45378.65465277778</v>
+        <v>45569.65767361111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19366,7 +19334,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19403,14 +19371,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 47960-2022</t>
+          <t>A 12322-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44855</v>
+        <v>45378.65465277778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19423,7 +19391,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19460,14 +19428,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 6841-2025</t>
+          <t>A 47960-2022</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45700.84496527778</v>
+        <v>44855</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19480,7 +19448,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19517,14 +19485,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 7713-2024</t>
+          <t>A 6841-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45349.37376157408</v>
+        <v>45700.84496527778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19537,7 +19505,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19574,14 +19542,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 26316-2023</t>
+          <t>A 7713-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45091</v>
+        <v>45349.37376157408</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19594,7 +19562,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19631,14 +19599,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 38508-2024</t>
+          <t>A 26316-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45546.54806712963</v>
+        <v>45091</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19651,7 +19619,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19688,14 +19656,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 45322-2024</t>
+          <t>A 38508-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45576.44601851852</v>
+        <v>45546.54806712963</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19708,7 +19676,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19745,14 +19713,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 14313-2023</t>
+          <t>A 45322-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45011</v>
+        <v>45576.44601851852</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19765,7 +19733,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19802,14 +19770,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 59541-2022</t>
+          <t>A 14313-2023</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>44907.57800925926</v>
+        <v>45011</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19822,7 +19790,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19859,14 +19827,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 33764-2021</t>
+          <t>A 59541-2022</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>44378</v>
+        <v>44907.57800925926</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19879,7 +19847,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19916,14 +19884,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 12318-2022</t>
+          <t>A 33764-2021</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>44637</v>
+        <v>44378</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19936,7 +19904,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19973,14 +19941,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 52299-2024</t>
+          <t>A 12318-2022</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45608.73741898148</v>
+        <v>44637</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19993,7 +19961,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -20030,14 +19998,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 37429-2023</t>
+          <t>A 52299-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45156.63964120371</v>
+        <v>45608.73741898148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20049,13 +20017,8 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G328" t="n">
-        <v>9.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -20092,14 +20055,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 25747-2024</t>
+          <t>A 37429-2023</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45465.44271990741</v>
+        <v>45156.63964120371</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20111,8 +20074,13 @@
           <t>ALINGSÅS</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G329" t="n">
-        <v>0.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -20149,14 +20117,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 57450-2024</t>
+          <t>A 25747-2024</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45630.27112268518</v>
+        <v>45465.44271990741</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20169,7 +20137,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -20206,14 +20174,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 3495-2023</t>
+          <t>A 57450-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>44949</v>
+        <v>45630.27112268518</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20226,7 +20194,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -20263,14 +20231,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 21143-2024</t>
+          <t>A 3495-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45440.3950462963</v>
+        <v>44949</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20283,7 +20251,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -20320,14 +20288,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 62671-2023</t>
+          <t>A 21143-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45271.4643287037</v>
+        <v>45440.3950462963</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20340,7 +20308,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -20377,14 +20345,14 @@
     <row r="334" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 15018-2023</t>
+          <t>A 62671-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45015</v>
+        <v>45271.4643287037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20397,7 +20365,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -20434,14 +20402,14 @@
     <row r="335" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 8620-2023</t>
+          <t>A 15018-2023</t>
         </is>
       </c>
       <c r="B335" s="1" t="n">
-        <v>44977.82046296296</v>
+        <v>45015</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20454,7 +20422,7 @@
         </is>
       </c>
       <c r="G335" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -20491,14 +20459,14 @@
     <row r="336" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
-          <t>A 60027-2023</t>
+          <t>A 8620-2023</t>
         </is>
       </c>
       <c r="B336" s="1" t="n">
-        <v>45258.31546296296</v>
+        <v>44977.82046296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20511,7 +20479,7 @@
         </is>
       </c>
       <c r="G336" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -20548,14 +20516,14 @@
     <row r="337" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A 39471-2023</t>
+          <t>A 60027-2023</t>
         </is>
       </c>
       <c r="B337" s="1" t="n">
-        <v>45166.87197916667</v>
+        <v>45258.31546296296</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20568,7 +20536,7 @@
         </is>
       </c>
       <c r="G337" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -20605,14 +20573,14 @@
     <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
-          <t>A 38955-2022</t>
+          <t>A 39471-2023</t>
         </is>
       </c>
       <c r="B338" s="1" t="n">
-        <v>44816.71021990741</v>
+        <v>45166.87197916667</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20625,7 +20593,7 @@
         </is>
       </c>
       <c r="G338" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="H338" t="n">
         <v>0</v>
@@ -20662,14 +20630,14 @@
     <row r="339" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
-          <t>A 49522-2024</t>
+          <t>A 38955-2022</t>
         </is>
       </c>
       <c r="B339" s="1" t="n">
-        <v>45596.39893518519</v>
+        <v>44816.71021990741</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20682,7 +20650,7 @@
         </is>
       </c>
       <c r="G339" t="n">
-        <v>8.300000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="H339" t="n">
         <v>0</v>
@@ -20719,14 +20687,14 @@
     <row r="340" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
-          <t>A 40880-2023</t>
+          <t>A 49522-2024</t>
         </is>
       </c>
       <c r="B340" s="1" t="n">
-        <v>45173.36982638889</v>
+        <v>45596.39893518519</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20739,7 +20707,7 @@
         </is>
       </c>
       <c r="G340" t="n">
-        <v>2.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -20776,14 +20744,14 @@
     <row r="341" ht="15" customHeight="1">
       <c r="A341" t="inlineStr">
         <is>
-          <t>A 29186-2021</t>
+          <t>A 40880-2023</t>
         </is>
       </c>
       <c r="B341" s="1" t="n">
-        <v>44358</v>
+        <v>45173.36982638889</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20796,7 +20764,7 @@
         </is>
       </c>
       <c r="G341" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="H341" t="n">
         <v>0</v>
@@ -20833,14 +20801,14 @@
     <row r="342" ht="15" customHeight="1">
       <c r="A342" t="inlineStr">
         <is>
-          <t>A 51927-2024</t>
+          <t>A 29186-2021</t>
         </is>
       </c>
       <c r="B342" s="1" t="n">
-        <v>45607.62167824074</v>
+        <v>44358</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20853,7 +20821,7 @@
         </is>
       </c>
       <c r="G342" t="n">
-        <v>2</v>
+        <v>6.4</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -20890,14 +20858,14 @@
     <row r="343" ht="15" customHeight="1">
       <c r="A343" t="inlineStr">
         <is>
-          <t>A 7805-2025</t>
+          <t>A 51927-2024</t>
         </is>
       </c>
       <c r="B343" s="1" t="n">
-        <v>45706.60927083333</v>
+        <v>45607.62167824074</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20910,7 +20878,7 @@
         </is>
       </c>
       <c r="G343" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H343" t="n">
         <v>0</v>
@@ -20947,14 +20915,14 @@
     <row r="344" ht="15" customHeight="1">
       <c r="A344" t="inlineStr">
         <is>
-          <t>A 16087-2025</t>
+          <t>A 7805-2025</t>
         </is>
       </c>
       <c r="B344" s="1" t="n">
-        <v>45749.82695601852</v>
+        <v>45706.60927083333</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20967,7 +20935,7 @@
         </is>
       </c>
       <c r="G344" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -21004,14 +20972,14 @@
     <row r="345" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
-          <t>A 25743-2024</t>
+          <t>A 16087-2025</t>
         </is>
       </c>
       <c r="B345" s="1" t="n">
-        <v>45465.42688657407</v>
+        <v>45749.82695601852</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21024,7 +20992,7 @@
         </is>
       </c>
       <c r="G345" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -21061,14 +21029,14 @@
     <row r="346" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
-          <t>A 37537-2024</t>
+          <t>A 25743-2024</t>
         </is>
       </c>
       <c r="B346" s="1" t="n">
-        <v>45541.41628472223</v>
+        <v>45465.42688657407</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21081,7 +21049,7 @@
         </is>
       </c>
       <c r="G346" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H346" t="n">
         <v>0</v>
@@ -21118,14 +21086,14 @@
     <row r="347" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
-          <t>A 54752-2024</t>
+          <t>A 37537-2024</t>
         </is>
       </c>
       <c r="B347" s="1" t="n">
-        <v>45618.45256944445</v>
+        <v>45541.41628472223</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21138,7 +21106,7 @@
         </is>
       </c>
       <c r="G347" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H347" t="n">
         <v>0</v>
@@ -21175,14 +21143,14 @@
     <row r="348" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
-          <t>A 19562-2024</t>
+          <t>A 54752-2024</t>
         </is>
       </c>
       <c r="B348" s="1" t="n">
-        <v>45429.89168981482</v>
+        <v>45618.45256944445</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21195,7 +21163,7 @@
         </is>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H348" t="n">
         <v>0</v>
@@ -21232,14 +21200,14 @@
     <row r="349" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
-          <t>A 50039-2021</t>
+          <t>A 19562-2024</t>
         </is>
       </c>
       <c r="B349" s="1" t="n">
-        <v>44456</v>
+        <v>45429.89168981482</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21252,7 +21220,7 @@
         </is>
       </c>
       <c r="G349" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H349" t="n">
         <v>0</v>
@@ -21289,14 +21257,14 @@
     <row r="350" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
-          <t>A 41971-2023</t>
+          <t>A 50039-2021</t>
         </is>
       </c>
       <c r="B350" s="1" t="n">
-        <v>45177.37849537037</v>
+        <v>44456</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21309,7 +21277,7 @@
         </is>
       </c>
       <c r="G350" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H350" t="n">
         <v>0</v>
@@ -21346,14 +21314,14 @@
     <row r="351" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
-          <t>A 16824-2025</t>
+          <t>A 41971-2023</t>
         </is>
       </c>
       <c r="B351" s="1" t="n">
-        <v>45754.64701388889</v>
+        <v>45177.37849537037</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21366,7 +21334,7 @@
         </is>
       </c>
       <c r="G351" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H351" t="n">
         <v>0</v>
@@ -21403,14 +21371,14 @@
     <row r="352" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
-          <t>A 49164-2024</t>
+          <t>A 16824-2025</t>
         </is>
       </c>
       <c r="B352" s="1" t="n">
-        <v>45594.92625</v>
+        <v>45754.64701388889</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21423,7 +21391,7 @@
         </is>
       </c>
       <c r="G352" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H352" t="n">
         <v>0</v>
@@ -21460,14 +21428,14 @@
     <row r="353" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 10587-2025</t>
+          <t>A 49164-2024</t>
         </is>
       </c>
       <c r="B353" s="1" t="n">
-        <v>45721.55325231481</v>
+        <v>45594.92625</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21480,7 +21448,7 @@
         </is>
       </c>
       <c r="G353" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H353" t="n">
         <v>0</v>
@@ -21517,14 +21485,14 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>A 33491-2024</t>
+          <t>A 10587-2025</t>
         </is>
       </c>
       <c r="B354" s="1" t="n">
-        <v>45519.61547453704</v>
+        <v>45721.55325231481</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21537,7 +21505,7 @@
         </is>
       </c>
       <c r="G354" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H354" t="n">
         <v>0</v>

--- a/Översikt ALINGSÅS.xlsx
+++ b/Översikt ALINGSÅS.xlsx
@@ -575,7 +575,7 @@
         <v>45630.85815972222</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -675,7 +675,7 @@
         <v>45839.68944444445</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>45812</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
         <v>45243</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -950,7 +950,7 @@
         <v>44621.49918981481</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>46042.60815972222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>45817.48946759259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>44868</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>45274</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45630.84596064815</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>45240</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1589,7 +1589,7 @@
         <v>44803</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>45483.40099537037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45770.62328703704</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>45889.33890046296</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>45274</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>45279.65201388889</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>45630.84898148148</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45279</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>45330</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2396,7 +2396,7 @@
         <v>46044.71936342592</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>45442.38009259259</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>45366.55957175926</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
         <v>44266</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>44530.45506944445</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2773,7 +2773,7 @@
         <v>44628</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2830,7 +2830,7 @@
         <v>44614</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         <v>44831</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         <v>44754.35361111111</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3058,7 +3058,7 @@
         <v>44427</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>44637.59607638889</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         <v>44708.34130787037</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>44335</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>44817</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         <v>44516</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44773</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
         <v>44852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3514,7 +3514,7 @@
         <v>44362.621875</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>44348.69945601852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>44809</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3685,7 +3685,7 @@
         <v>44389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>44572.31209490741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>44447</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         <v>44652.45527777778</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>44510</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3975,7 +3975,7 @@
         <v>44515</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4032,7 +4032,7 @@
         <v>44439</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>44496</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         <v>44536.6102662037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         <v>44550</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
         <v>44461</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>44568</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         <v>44809</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         <v>44582</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4488,7 +4488,7 @@
         <v>44332</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4545,7 +4545,7 @@
         <v>44719.59027777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4602,7 +4602,7 @@
         <v>44795.51157407407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4659,7 +4659,7 @@
         <v>44252</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
         <v>44642.57876157408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         <v>44726</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         <v>44378</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
         <v>44263</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>45748.65071759259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>45634.74640046297</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>45456.38</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         <v>44979.53782407408</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44991.85997685185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>44903</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         <v>45316.46585648148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>44582.60462962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         <v>45660.4503587963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5462,7 +5462,7 @@
         <v>45210</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>45465.44537037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45118</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45637.66935185185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>44389</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>45671.91678240741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5814,7 +5814,7 @@
         <v>45177</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         <v>45617.72695601852</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>45576.44700231482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>45015</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>45329.75289351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45355</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45097.38552083333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>45608.73481481482</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>45608.74045138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>44258</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>45568.64648148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45465.44144675926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>45254</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45534.59996527778</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>44260.52003472222</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6669,7 +6669,7 @@
         <v>45335.50540509259</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45335</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6783,7 +6783,7 @@
         <v>44461</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>45679.87385416667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         <v>44298</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         <v>45111.600625</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         <v>45196.74399305556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>44991.86207175926</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         <v>44977</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         <v>44631.40365740741</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7239,7 +7239,7 @@
         <v>45817.57240740741</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7296,7 +7296,7 @@
         <v>45770.62131944444</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45782.35883101852</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>45406.4834837963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44488</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>45576.45584490741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7581,7 +7581,7 @@
         <v>45818.37311342593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>45640.78921296296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>45355.58215277778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7752,7 +7752,7 @@
         <v>45687.71972222222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7809,7 +7809,7 @@
         <v>45721.48103009259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>45723.64304398148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>45826.27395833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>45726.56748842593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>45726.65605324074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>45261</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>45726</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8213,7 +8213,7 @@
         <v>44949.47299768519</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8270,7 +8270,7 @@
         <v>45356.67628472222</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8327,7 +8327,7 @@
         <v>45726</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8384,7 +8384,7 @@
         <v>45716</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8441,7 +8441,7 @@
         <v>45894.87516203704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8498,7 +8498,7 @@
         <v>44505.79517361111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
         <v>45835.44943287037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         <v>45894</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8669,7 +8669,7 @@
         <v>45894</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8726,7 +8726,7 @@
         <v>45901.43854166667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8783,7 +8783,7 @@
         <v>45901.43251157407</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8840,7 +8840,7 @@
         <v>45901.43643518518</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8897,7 +8897,7 @@
         <v>45230.58957175926</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8954,7 +8954,7 @@
         <v>44727</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9011,7 +9011,7 @@
         <v>45902.67804398148</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9068,7 +9068,7 @@
         <v>45905.49694444444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9125,7 +9125,7 @@
         <v>45838.41680555556</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9182,7 +9182,7 @@
         <v>45512.4183449074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9239,7 +9239,7 @@
         <v>45908.30107638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9296,7 +9296,7 @@
         <v>45908.37523148148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9353,7 +9353,7 @@
         <v>45841.50623842593</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9410,7 +9410,7 @@
         <v>45908.37621527778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9467,7 +9467,7 @@
         <v>45910.56927083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9524,7 +9524,7 @@
         <v>45218.63770833334</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9581,7 +9581,7 @@
         <v>45520.5412037037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9638,7 +9638,7 @@
         <v>44333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9695,7 +9695,7 @@
         <v>45915.56835648148</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9752,7 +9752,7 @@
         <v>45429</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         <v>45916.75508101852</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9866,7 +9866,7 @@
         <v>45681.60335648148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9923,7 +9923,7 @@
         <v>45850.66096064815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>45330</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10042,7 +10042,7 @@
         <v>45329.36071759259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10099,7 +10099,7 @@
         <v>45253</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         <v>45850.66271990741</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10213,7 +10213,7 @@
         <v>45468.55118055556</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10270,7 +10270,7 @@
         <v>44979</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10327,7 +10327,7 @@
         <v>44896</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>45922.7158449074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10441,7 +10441,7 @@
         <v>45757.61144675926</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10498,7 +10498,7 @@
         <v>45924.48055555556</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10555,7 +10555,7 @@
         <v>45211</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10612,7 +10612,7 @@
         <v>45929.7067824074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         <v>45928.68194444444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10726,7 +10726,7 @@
         <v>45930.73918981481</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10783,7 +10783,7 @@
         <v>45219.39265046296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10840,7 +10840,7 @@
         <v>45465.43989583333</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10897,7 +10897,7 @@
         <v>45465.44412037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10954,7 +10954,7 @@
         <v>45931.38734953704</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11011,7 +11011,7 @@
         <v>45279.68320601852</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11073,7 +11073,7 @@
         <v>44672</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>44672</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11187,7 +11187,7 @@
         <v>44896</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11244,7 +11244,7 @@
         <v>45279</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         <v>45279.35271990741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         <v>44831.86186342593</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11425,7 +11425,7 @@
         <v>45938.69974537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11482,7 +11482,7 @@
         <v>45937</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11539,7 +11539,7 @@
         <v>45937</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11596,7 +11596,7 @@
         <v>45938.69787037037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11653,7 +11653,7 @@
         <v>45938.70332175926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11710,7 +11710,7 @@
         <v>45938.70142361111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11767,7 +11767,7 @@
         <v>45772.49256944445</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11824,7 +11824,7 @@
         <v>45722</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11881,7 +11881,7 @@
         <v>45133.58770833333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11938,7 +11938,7 @@
         <v>45097</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         <v>45940.47415509259</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12052,7 +12052,7 @@
         <v>44964</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12109,7 +12109,7 @@
         <v>44389</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12171,7 +12171,7 @@
         <v>45922.7187037037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>44984</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44974</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>45887.71134259259</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44596.48284722222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12456,7 +12456,7 @@
         <v>45244.36944444444</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12513,7 +12513,7 @@
         <v>44315</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12570,7 +12570,7 @@
         <v>45600.65659722222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12627,7 +12627,7 @@
         <v>45952.57729166667</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12684,7 +12684,7 @@
         <v>45952.57494212963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12741,7 +12741,7 @@
         <v>45257.65560185185</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12798,7 +12798,7 @@
         <v>45673.36258101852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12855,7 +12855,7 @@
         <v>45271</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>45958.6034375</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45958.60418981482</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>44615.82409722222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>45960.54053240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44832.74553240741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44729.53085648148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45961.60966435185</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>45371.38420138889</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45964.38070601852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>45964.4522337963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>45964.3555324074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>45964.35775462963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>45427.46807870371</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45966.47996527778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45966.37148148148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45966.36814814815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>45966.47914351852</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>45971.48229166667</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45412.43246527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45969.41967592593</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45310</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14114,7 +14114,7 @@
         <v>45972</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14171,7 +14171,7 @@
         <v>45972</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>45673.25934027778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>45673.27136574074</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14352,7 +14352,7 @@
         <v>45974.6280787037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14409,7 +14409,7 @@
         <v>45973.81604166667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14466,7 +14466,7 @@
         <v>45973.81059027778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14523,7 +14523,7 @@
         <v>44821</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14580,7 +14580,7 @@
         <v>44469.68799768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14637,7 +14637,7 @@
         <v>45420.61472222222</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14694,7 +14694,7 @@
         <v>45380.80784722222</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14751,7 +14751,7 @@
         <v>45749.82921296296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14808,7 +14808,7 @@
         <v>45986.4834837963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14865,7 +14865,7 @@
         <v>45986.48988425926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14922,7 +14922,7 @@
         <v>45785</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>45989.47740740741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>45989.4797800926</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>45812.54665509259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15160,7 +15160,7 @@
         <v>46035.39015046296</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15217,7 +15217,7 @@
         <v>45211</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15274,7 +15274,7 @@
         <v>44727</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15331,7 +15331,7 @@
         <v>45257.71068287037</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15388,7 +15388,7 @@
         <v>46036.36211805556</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15445,7 +15445,7 @@
         <v>45994</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44721.47039351852</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>46031</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44418.31126157408</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>46038.70267361111</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>46038.78969907408</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15787,7 +15787,7 @@
         <v>45265</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15844,7 +15844,7 @@
         <v>46038.79092592592</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         <v>45999.4471875</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15958,7 +15958,7 @@
         <v>46038.6604050926</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16015,7 +16015,7 @@
         <v>45996</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16072,7 +16072,7 @@
         <v>45399.42413194444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16129,7 +16129,7 @@
         <v>46000</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16186,7 +16186,7 @@
         <v>46000.4978587963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16243,7 +16243,7 @@
         <v>46044.7133912037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16300,7 +16300,7 @@
         <v>45589.58722222222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>44831.61996527778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>45681.36631944445</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>44708.3287037037</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>45075</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>46044.69255787037</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>45628.64818287037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>45771.36829861111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44957.62646990741</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>45608.7362037037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>45021.84559027778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>45271.47798611111</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>46008.65475694444</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>46010</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>45166.87391203704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17212,7 +17212,7 @@
         <v>44445</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17269,7 +17269,7 @@
         <v>44964.28975694445</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17326,7 +17326,7 @@
         <v>45700.84613425926</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17383,7 +17383,7 @@
         <v>45391.5203587963</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17440,7 +17440,7 @@
         <v>45705.75006944445</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17497,7 +17497,7 @@
         <v>46014.65982638889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17554,7 +17554,7 @@
         <v>46014.66287037037</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17611,7 +17611,7 @@
         <v>45708.44409722222</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17668,7 +17668,7 @@
         <v>45708.47453703704</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17725,7 +17725,7 @@
         <v>45699.31804398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17782,7 +17782,7 @@
         <v>45152</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17839,7 +17839,7 @@
         <v>45737.32966435186</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17896,7 +17896,7 @@
         <v>44953</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17953,7 +17953,7 @@
         <v>45757.61700231482</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18010,7 +18010,7 @@
         <v>46065.46873842592</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18067,7 +18067,7 @@
         <v>46061</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18124,7 +18124,7 @@
         <v>44446</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18181,7 +18181,7 @@
         <v>45569.65767361111</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18238,7 +18238,7 @@
         <v>45378.65465277778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18295,7 +18295,7 @@
         <v>46070.74601851852</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18352,7 +18352,7 @@
         <v>44855</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18409,7 +18409,7 @@
         <v>45700.84496527778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18466,7 +18466,7 @@
         <v>45349.37376157408</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18523,7 +18523,7 @@
         <v>45091</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18580,7 +18580,7 @@
         <v>45546.54806712963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18637,7 +18637,7 @@
         <v>45576.44601851852</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45011</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18751,7 +18751,7 @@
         <v>44907.57800925926</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18808,7 +18808,7 @@
         <v>44378</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18865,7 +18865,7 @@
         <v>44637</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18922,7 +18922,7 @@
         <v>45608.73741898148</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18979,7 +18979,7 @@
         <v>45156.63964120371</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19041,7 +19041,7 @@
         <v>45465.44271990741</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19098,7 +19098,7 @@
         <v>45630.27112268518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19155,7 +19155,7 @@
         <v>44949</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19212,7 +19212,7 @@
         <v>45440.3950462963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19269,7 +19269,7 @@
         <v>45271.4643287037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45015</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>44977.82046296296</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45258.31546296296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19497,7 +19497,7 @@
         <v>45166.87197916667</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19554,7 +19554,7 @@
         <v>44816.71021990741</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19611,7 +19611,7 @@
         <v>45596.39893518519</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19668,7 +19668,7 @@
         <v>45173.36982638889</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19725,7 +19725,7 @@
         <v>44358</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19782,7 +19782,7 @@
         <v>45607.62167824074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19839,7 +19839,7 @@
         <v>45706.60927083333</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19896,7 +19896,7 @@
         <v>45749.82695601852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19953,7 +19953,7 @@
         <v>45465.42688657407</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20010,7 +20010,7 @@
         <v>45541.41628472223</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20067,7 +20067,7 @@
         <v>45618.45256944445</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20124,7 +20124,7 @@
         <v>45429.89168981482</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20181,7 +20181,7 @@
         <v>44456</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20238,7 +20238,7 @@
         <v>45177.37849537037</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20295,7 +20295,7 @@
         <v>45754.64701388889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20352,7 +20352,7 @@
         <v>45594.92625</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20409,7 +20409,7 @@
         <v>45721.55325231481</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20466,7 +20466,7 @@
         <v>45519.61547453704</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20523,7 +20523,7 @@
         <v>45792.53560185185</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20580,7 +20580,7 @@
         <v>45792.53724537037</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20637,7 +20637,7 @@
         <v>45681</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20694,7 +20694,7 @@
         <v>45510.65791666666</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20751,7 +20751,7 @@
         <v>45607.5986574074</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20808,7 +20808,7 @@
         <v>45258.31431712963</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20865,7 +20865,7 @@
         <v>45803.45508101852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20922,7 +20922,7 @@
         <v>45805.35203703704</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20979,7 +20979,7 @@
         <v>45804.53835648148</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21036,7 +21036,7 @@
         <v>45804.5450462963</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21093,7 +21093,7 @@
         <v>45804.54657407408</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21150,7 +21150,7 @@
         <v>45804.5475</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21207,7 +21207,7 @@
         <v>45617</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45810.43835648148</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21321,7 +21321,7 @@
         <v>45734.43648148148</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21378,7 +21378,7 @@
         <v>45378.50021990741</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21435,7 +21435,7 @@
         <v>45812.68253472223</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21492,7 +21492,7 @@
         <v>45812.39840277778</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
